--- a/survey_data.xlsx
+++ b/survey_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuiwatanabe/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EA6A71BB-B2DD-624D-926F-39404935F9F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{A0A1EB3B-11CB-F24E-AD17-D163BC89A487}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15640" yWindow="500" windowWidth="12780" windowHeight="16460" xr2:uid="{EDB602F2-0FA8-AB43-BD3C-589DB3DFE8DF}"/>
+    <workbookView xWindow="15640" yWindow="500" windowWidth="12780" windowHeight="16440" xr2:uid="{EDB602F2-0FA8-AB43-BD3C-589DB3DFE8DF}"/>
   </bookViews>
   <sheets>
     <sheet name="survey_data" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="14">
   <si>
     <t>employee_id</t>
   </si>
@@ -58,6 +58,24 @@
   </si>
   <si>
     <t>finance</t>
+  </si>
+  <si>
+    <t>new_hire</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>job_level</t>
+  </si>
+  <si>
+    <t>Salaried</t>
+  </si>
+  <si>
+    <t>Hourly</t>
   </si>
 </sst>
 </file>
@@ -409,10 +427,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA1B6519-8A8A-774B-8DD1-04C6E1DF32CB}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -423,7 +441,7 @@
     <col min="5" max="5" width="18.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -439,8 +457,14 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -456,8 +480,14 @@
       <c r="E2">
         <v>7</v>
       </c>
+      <c r="F2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -473,8 +503,14 @@
       <c r="E3">
         <v>10</v>
       </c>
+      <c r="F3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -490,8 +526,14 @@
       <c r="E4">
         <v>3</v>
       </c>
+      <c r="F4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -507,8 +549,14 @@
       <c r="E5">
         <v>8</v>
       </c>
+      <c r="F5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -523,6 +571,12 @@
       </c>
       <c r="E6">
         <v>14</v>
+      </c>
+      <c r="F6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
